--- a/listas_apolo/automatizacion A302.xlsx
+++ b/listas_apolo/automatizacion A302.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="12">
   <si>
     <t>Año</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Nº Expediente en Centro</t>
-  </si>
-  <si>
-    <t>Nº Expediente en Ágora</t>
   </si>
   <si>
     <t>2020-21</t>
@@ -919,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,10 +931,9 @@
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,2270 +955,2006 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>565000165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2">
         <v>54461</v>
       </c>
-      <c r="H2" s="2">
-        <v>321939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>565000165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2">
         <v>54477</v>
       </c>
-      <c r="H3" s="2">
-        <v>322023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>565000165</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2">
         <v>54483</v>
       </c>
-      <c r="H4" s="2">
-        <v>321977</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>565000165</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2">
         <v>53821</v>
       </c>
-      <c r="H5" s="2">
-        <v>321742</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>565000165</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2">
         <v>55557</v>
       </c>
-      <c r="H6" s="2">
-        <v>322206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>565000165</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <v>52231</v>
       </c>
-      <c r="H7" s="2">
-        <v>321329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>565000165</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2">
         <v>54492</v>
       </c>
-      <c r="H8" s="2">
-        <v>321990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>565000165</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2">
         <v>54410</v>
       </c>
-      <c r="H9" s="2">
-        <v>321857</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>565000165</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2">
         <v>53831</v>
       </c>
-      <c r="H10" s="2">
-        <v>321808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>565000165</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2">
         <v>53337</v>
       </c>
-      <c r="H11" s="2">
-        <v>321601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
         <v>565000165</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2">
         <v>54502</v>
       </c>
-      <c r="H12" s="2">
-        <v>321875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2">
         <v>565000165</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2">
         <v>53843</v>
       </c>
-      <c r="H13" s="2">
-        <v>321810</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
         <v>565000165</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2">
         <v>55667</v>
       </c>
-      <c r="H14" s="2">
-        <v>322407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
         <v>565000165</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2">
         <v>53341</v>
       </c>
-      <c r="H15" s="2">
-        <v>321495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
         <v>565000165</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2">
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2">
         <v>53854</v>
       </c>
-      <c r="H16" s="2">
-        <v>321691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
         <v>565000165</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2">
         <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2">
         <v>52262</v>
       </c>
-      <c r="H17" s="2">
-        <v>321355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
         <v>565000165</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2">
         <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2">
         <v>53860</v>
       </c>
-      <c r="H18" s="2">
-        <v>321797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2">
         <v>565000165</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
         <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2">
         <v>53862</v>
       </c>
-      <c r="H19" s="2">
-        <v>321763</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
         <v>565000165</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2">
         <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2">
         <v>54396</v>
       </c>
-      <c r="H20" s="2">
-        <v>321856</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
         <v>565000165</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2">
         <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2">
         <v>53864</v>
       </c>
-      <c r="H21" s="2">
-        <v>321789</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
         <v>565000165</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2">
         <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2">
         <v>53865</v>
       </c>
-      <c r="H22" s="2">
-        <v>321799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2">
         <v>565000165</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2">
         <v>22</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2">
         <v>53871</v>
       </c>
-      <c r="H23" s="2">
-        <v>321750</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2">
         <v>565000165</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="2">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2">
         <v>50663</v>
       </c>
-      <c r="H24" s="2">
-        <v>320878</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2">
         <v>565000165</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2">
         <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2">
         <v>52186</v>
       </c>
-      <c r="H25" s="2">
-        <v>321259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2">
         <v>565000165</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2">
         <v>25</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2">
         <v>53910</v>
       </c>
-      <c r="H26" s="2">
-        <v>321756</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2">
         <v>565000165</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2">
         <v>26</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2">
         <v>54556</v>
       </c>
-      <c r="H27" s="2">
-        <v>321938</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2">
         <v>565000165</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2">
         <v>27</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2">
         <v>52157</v>
       </c>
-      <c r="H28" s="2">
-        <v>321273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2">
         <v>565000165</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2">
         <v>28</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2">
         <v>53928</v>
       </c>
-      <c r="H29" s="2">
-        <v>321771</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2">
         <v>565000165</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2">
         <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2">
         <v>52312</v>
       </c>
-      <c r="H30" s="2">
-        <v>321313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="2">
         <v>565000165</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2">
         <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2">
         <v>54578</v>
       </c>
-      <c r="H31" s="2">
-        <v>321884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2">
         <v>565000165</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2">
         <v>31</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2">
         <v>52692</v>
       </c>
-      <c r="H32" s="2">
-        <v>321455</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="2">
         <v>565000165</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2">
         <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2">
         <v>54762</v>
       </c>
-      <c r="H33" s="2">
-        <v>321913</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2">
         <v>565000165</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2">
         <v>33</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2">
         <v>54615</v>
       </c>
-      <c r="H34" s="2">
-        <v>321989</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="2">
         <v>565000165</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2">
         <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2">
         <v>54620</v>
       </c>
-      <c r="H35" s="2">
-        <v>322029</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2">
         <v>565000165</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2">
         <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2">
         <v>54623</v>
       </c>
-      <c r="H36" s="2">
-        <v>322409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2">
         <v>565000165</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2">
         <v>36</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2">
         <v>53967</v>
       </c>
-      <c r="H37" s="2">
-        <v>321731</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2">
         <v>565000165</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2">
         <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2">
         <v>54637</v>
       </c>
-      <c r="H38" s="2">
-        <v>321937</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="2">
         <v>565000165</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2">
         <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2">
         <v>54639</v>
       </c>
-      <c r="H39" s="2">
-        <v>322011</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="2">
         <v>565000165</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2">
         <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2">
         <v>55563</v>
       </c>
-      <c r="H40" s="2">
-        <v>322199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="2">
         <v>565000165</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2">
         <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2">
         <v>53989</v>
       </c>
-      <c r="H41" s="2">
-        <v>321719</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="2">
         <v>565000165</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2">
         <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2">
         <v>52389</v>
       </c>
-      <c r="H42" s="2">
-        <v>321316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="2">
         <v>565000165</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2">
         <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2">
         <v>53992</v>
       </c>
-      <c r="H43" s="2">
-        <v>321704</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" s="2">
         <v>565000165</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="2">
         <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2">
         <v>54647</v>
       </c>
-      <c r="H44" s="2">
-        <v>321940</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="2">
         <v>565000165</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2">
         <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2">
         <v>54656</v>
       </c>
-      <c r="H45" s="2">
-        <v>322015</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="2">
         <v>565000165</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2">
         <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2">
         <v>54000</v>
       </c>
-      <c r="H46" s="2">
-        <v>321862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" s="2">
         <v>565000165</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="2">
         <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2">
         <v>54001</v>
       </c>
-      <c r="H47" s="2">
-        <v>321732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" s="2">
         <v>565000165</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2">
         <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2">
         <v>54019</v>
       </c>
-      <c r="H48" s="2">
-        <v>321673</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="2">
         <v>565000165</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="2">
         <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2">
         <v>54027</v>
       </c>
-      <c r="H49" s="2">
-        <v>322411</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" s="2">
         <v>565000165</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2">
         <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2">
         <v>54029</v>
       </c>
-      <c r="H50" s="2">
-        <v>321717</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="2">
         <v>565000165</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2">
         <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2">
         <v>54698</v>
       </c>
-      <c r="H51" s="2">
-        <v>321944</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" s="2">
         <v>565000165</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="2">
         <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2">
         <v>54275</v>
       </c>
-      <c r="H52" s="2">
-        <v>321837</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" s="2">
         <v>565000165</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="2">
         <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2">
         <v>54703</v>
       </c>
-      <c r="H53" s="2">
-        <v>322005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" s="2">
         <v>565000165</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2">
         <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2">
         <v>54713</v>
       </c>
-      <c r="H54" s="2">
-        <v>321893</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" s="2">
         <v>565000165</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="2">
         <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2">
         <v>53395</v>
       </c>
-      <c r="H55" s="2">
-        <v>321596</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" s="2">
         <v>565000165</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="2">
         <v>55</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2">
         <v>54731</v>
       </c>
-      <c r="H56" s="2">
-        <v>321945</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" s="2">
         <v>565000165</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="2">
         <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2">
         <v>49347</v>
       </c>
-      <c r="H57" s="2">
-        <v>320935</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" s="2">
         <v>565000165</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2">
         <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2">
         <v>54075</v>
       </c>
-      <c r="H58" s="2">
-        <v>321752</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" s="2">
         <v>565000165</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="2">
         <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2">
         <v>54080</v>
       </c>
-      <c r="H59" s="2">
-        <v>321814</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" s="2">
         <v>565000165</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2">
         <v>59</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2">
         <v>54276</v>
       </c>
-      <c r="H60" s="2">
-        <v>321834</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61" s="2">
         <v>565000165</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2">
         <v>60</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2">
         <v>54745</v>
       </c>
-      <c r="H61" s="2">
-        <v>321969</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" s="2">
         <v>565000165</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="2">
         <v>61</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2">
         <v>54087</v>
       </c>
-      <c r="H62" s="2">
-        <v>321748</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" s="2">
         <v>565000165</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2">
         <v>62</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2">
         <v>54090</v>
       </c>
-      <c r="H63" s="2">
-        <v>321761</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" s="2">
         <v>565000165</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" s="2">
         <v>63</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2">
         <v>54955</v>
       </c>
-      <c r="H64" s="2">
-        <v>322004</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" s="2">
         <v>565000165</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" s="2">
         <v>64</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2">
         <v>54752</v>
       </c>
-      <c r="H65" s="2">
-        <v>321991</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" s="2">
         <v>565000165</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2">
         <v>65</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2">
         <v>54753</v>
       </c>
-      <c r="H66" s="2">
-        <v>321992</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" s="2">
         <v>565000165</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" s="2">
         <v>66</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2">
         <v>54112</v>
       </c>
-      <c r="H67" s="2">
-        <v>321679</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" s="2">
         <v>565000165</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" s="2">
         <v>67</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2">
         <v>53327</v>
       </c>
-      <c r="H68" s="2">
-        <v>321611</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" s="2">
         <v>565000165</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69" s="2">
         <v>68</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2">
         <v>54778</v>
       </c>
-      <c r="H69" s="2">
-        <v>321957</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" s="2">
         <v>565000165</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" s="2">
         <v>69</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" s="2">
         <v>56231</v>
       </c>
-      <c r="H70" s="2">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" s="2">
         <v>565000165</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" s="2">
         <v>70</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2">
         <v>55347</v>
       </c>
-      <c r="H71" s="2">
-        <v>322203</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72" s="2">
         <v>565000165</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" s="2">
         <v>71</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2">
         <v>54142</v>
       </c>
-      <c r="H72" s="2">
-        <v>321718</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" s="2">
         <v>565000165</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73" s="2">
         <v>72</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2">
         <v>54145</v>
       </c>
-      <c r="H73" s="2">
-        <v>321804</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" s="2">
         <v>565000165</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E74" s="2">
         <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2">
         <v>54150</v>
       </c>
-      <c r="H74" s="2">
-        <v>321827</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" s="2">
         <v>565000165</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" s="2">
         <v>74</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2">
         <v>54157</v>
       </c>
-      <c r="H75" s="2">
-        <v>321711</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" s="2">
         <v>565000165</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76" s="2">
         <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2">
         <v>53417</v>
       </c>
-      <c r="H76" s="2">
-        <v>321640</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" s="2">
         <v>565000165</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" s="2">
         <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2">
         <v>54829</v>
       </c>
-      <c r="H77" s="2">
-        <v>322027</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="2">
         <v>565000165</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E78" s="2">
         <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2">
         <v>54186</v>
       </c>
-      <c r="H78" s="2">
-        <v>321712</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" s="2">
         <v>565000165</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E79" s="2">
         <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2">
         <v>54832</v>
       </c>
-      <c r="H79" s="2">
-        <v>322014</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" s="2">
         <v>565000165</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" s="2">
         <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2">
         <v>54838</v>
       </c>
-      <c r="H80" s="2">
-        <v>321976</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" s="2">
         <v>565000165</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81" s="2">
         <v>80</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2">
         <v>54844</v>
       </c>
-      <c r="H81" s="2">
-        <v>321958</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="2">
         <v>565000165</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E82" s="2">
         <v>81</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2">
         <v>54851</v>
       </c>
-      <c r="H82" s="2">
-        <v>321972</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" s="2">
         <v>565000165</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" s="2">
         <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2">
         <v>53433</v>
       </c>
-      <c r="H83" s="2">
-        <v>321498</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" s="2">
         <v>565000165</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" s="2">
         <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2">
         <v>54864</v>
       </c>
-      <c r="H84" s="2">
-        <v>322019</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85" s="2">
         <v>565000165</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85" s="2">
         <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2">
         <v>54213</v>
       </c>
-      <c r="H85" s="2">
-        <v>321785</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" s="2">
         <v>565000165</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2">
         <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2">
         <v>54887</v>
       </c>
-      <c r="H86" s="2">
-        <v>321877</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" s="2">
         <v>565000165</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87" s="2">
         <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2">
         <v>54892</v>
       </c>
-      <c r="H87" s="2">
-        <v>321959</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" s="2">
         <v>565000165</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88" s="2">
         <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2">
         <v>54259</v>
-      </c>
-      <c r="H88" s="2">
-        <v>321716</v>
       </c>
     </row>
   </sheetData>
